--- a/Miscellaneous/01_mega_movie_fundraiser.xlsx
+++ b/Miscellaneous/01_mega_movie_fundraiser.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/jgottschalk_masseyhigh_school_nz/Documents/Projects/01_Tutorials/12I_91896_7_v2_Adv_Programming_Revisited/91896_7_v2_support_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/lyh71709_masseyhigh_school_nz/Documents/Old School Files/Documents/COM_201/01_Programming/01_MMF/Miscellaneous/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{9380B24E-17DF-453D-8434-8CC8ACE91486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{02877C51-2392-44C6-A06E-55B200A53712}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{9380B24E-17DF-453D-8434-8CC8ACE91486}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7FF864C4-85B2-4A9B-9A3B-DC807448AAD4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{31E039A0-BFD1-4590-9D50-EC525F3332F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{31E039A0-BFD1-4590-9D50-EC525F3332F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Prices" sheetId="1" r:id="rId1"/>
     <sheet name="Ticket Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan_v2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>Movie Fundraiser</t>
   </si>
@@ -802,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41873174-3C06-4FAD-B97F-02F649204032}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,4 +1320,287 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49D6E21-3826-4B1B-8B98-D851F31AF399}">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <f>IF(B2&lt;16,7.5,IF(B2&lt;65,10.5,6.5))</f>
+        <v>7.5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <f>D2*2.5+E2*3+F2*4.5+G2*3.25+H2*2</f>
+        <v>2.5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2">
+        <f>IF(J2="credit",(C2+I2)*0.05,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <f>C2+I2+K2</f>
+        <v>10</v>
+      </c>
+      <c r="N2" s="2">
+        <f>IF(B2&lt;15,2.5,IF(B2&lt;65,5.5,1.5))</f>
+        <v>2.5</v>
+      </c>
+      <c r="O2" s="2">
+        <f>L2*0.2</f>
+        <v>2</v>
+      </c>
+      <c r="P2" s="2">
+        <f>N2+O2</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C5" si="0">IF(B3&lt;16,7.5,IF(B3&lt;65,10.5,6.5))</f>
+        <v>10.5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I5" si="1">D3*2.5+E3*3+F3*4.5+G3*3.25+H3*2</f>
+        <v>2.5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K5" si="2">IF(J3="credit",(C3+I3)*0.05,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L5" si="3">C3+I3+K3</f>
+        <v>13</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N5" si="4">IF(B3&lt;15,2.5,IF(B3&lt;65,5.5,1.5))</f>
+        <v>5.5</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O5" si="5">L3*0.2</f>
+        <v>2.6</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P5" si="6">N3+O3</f>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="3"/>
+        <v>13.65</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="4"/>
+        <v>5.5</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="5"/>
+        <v>2.7300000000000004</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="6"/>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="5"/>
+        <v>1.8</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D5)</f>
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f>SUM(E2:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F2:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G2:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H2:H5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <f>COUNTA(A2:A5)</f>
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="10">
+        <f>SUM(P2:P7)</f>
+        <v>24.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Miscellaneous/01_mega_movie_fundraiser.xlsx
+++ b/Miscellaneous/01_mega_movie_fundraiser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/lyh71709_masseyhigh_school_nz/Documents/Old School Files/Documents/COM_201/01_Programming/01_MMF/Miscellaneous/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{9380B24E-17DF-453D-8434-8CC8ACE91486}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7FF864C4-85B2-4A9B-9A3B-DC807448AAD4}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{9380B24E-17DF-453D-8434-8CC8ACE91486}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BF1071A0-D6DA-4139-B3F6-F123A02D0FD2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{31E039A0-BFD1-4590-9D50-EC525F3332F7}"/>
   </bookViews>
@@ -801,10 +801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41873174-3C06-4FAD-B97F-02F649204032}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,6 +1317,22 @@
         <v>71.569999999999993</v>
       </c>
     </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <f>SUM(I2:I13)</f>
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <f>I14*0.2</f>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="O15" s="2">
+        <f>SUM(O2:O14)</f>
+        <v>29.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1327,7 +1343,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,12 +1441,12 @@
         <v>2.5</v>
       </c>
       <c r="O2" s="2">
-        <f>L2*0.2</f>
-        <v>2</v>
+        <f>I2*0.2</f>
+        <v>0.5</v>
       </c>
       <c r="P2" s="2">
         <f>N2+O2</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1467,12 +1483,12 @@
         <v>5.5</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O5" si="5">L3*0.2</f>
-        <v>2.6</v>
+        <f t="shared" ref="O3:O5" si="5">I3*0.2</f>
+        <v>0.5</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P5" si="6">N3+O3</f>
-        <v>8.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1510,11 +1526,11 @@
       </c>
       <c r="O4" s="2">
         <f t="shared" si="5"/>
-        <v>2.7300000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="6"/>
-        <v>8.23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1552,11 +1568,11 @@
       </c>
       <c r="O5" s="2">
         <f t="shared" si="5"/>
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="6"/>
-        <v>3.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1596,8 +1612,8 @@
         <v>40</v>
       </c>
       <c r="P8" s="10">
-        <f>SUM(P2:P7)</f>
-        <v>24.13</v>
+        <f>SUM(P2:P5)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
